--- a/HTC/E2_Despacho_Hidrotermico.xlsx
+++ b/HTC/E2_Despacho_Hidrotermico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/HTC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_A37A89073CE4F788F15F8314552FDBE8DD53D1B4" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B1D8448B-E914-6E46-8C35-E406A6676431}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_A37A89073CE4F788F15F8314552FDBE8DD53D1B4" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{62026B53-666F-614B-ABC0-B75E7DF60AF8}"/>
   <bookViews>
     <workbookView xWindow="37280" yWindow="820" windowWidth="32700" windowHeight="19040" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="184">
   <si>
     <t>Pd1</t>
   </si>
@@ -1073,114 +1073,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>l1, ld1, lG1 ($/MWh)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lH1 ($/MWh)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mG1 ($/MWh)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mH1 ($/MWh)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mq1 ($/MWh)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mV1 ($/MWh)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hs1 ($/MWh)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>l2, ld2, lG2 ($/MWh)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lH2 ($/MWh)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>mG2 ($/MWh)</t>
     </r>
   </si>
@@ -1232,21 +1124,6 @@
       <t>hs2 ($/MWh)</t>
     </r>
   </si>
-  <si>
-    <t>Costo Social ($/año)</t>
-  </si>
-  <si>
-    <t>CAPEX termico ($/año)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEX Térmico ($/año)    </t>
-  </si>
-  <si>
-    <t>Utilidad de la Demanda ($/año)</t>
-  </si>
-  <si>
-    <t>Valor del Agua ($/año)</t>
-  </si>
 </sst>
 </file>
 
@@ -1255,10 +1132,10 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1313,13 +1190,6 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1517,7 +1387,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1552,12 +1422,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1567,7 +1437,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1575,8 +1445,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1586,39 +1456,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
@@ -1955,6 +1828,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2370992</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7D759B-1D9A-0A4C-8062-FE2E5CA298D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="0"/>
+          <a:ext cx="2116992" cy="925098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2251,7 +2173,7 @@
     <col min="5" max="8" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="16"/>
+    <row r="1" spans="1:9" s="19" customFormat="1"/>
     <row r="2" spans="1:9" s="19" customFormat="1" ht="19">
       <c r="G2" s="20" t="s">
         <v>136</v>
@@ -2262,15 +2184,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="19" customFormat="1" ht="16"/>
+    <row r="4" spans="1:9" s="19" customFormat="1"/>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="5" customHeight="1"/>
     <row r="6" spans="1:9" s="34" customFormat="1"/>
     <row r="7" spans="1:9" s="34" customFormat="1">
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:9" s="34" customFormat="1">
       <c r="A8" s="36" t="s">
@@ -2654,980 +2576,1074 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="43" customWidth="1"/>
-    <col min="2" max="5" width="19" style="44" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="43"/>
+    <col min="1" max="1" width="31.6640625" style="42" customWidth="1"/>
+    <col min="2" max="5" width="19" style="43" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:5" s="19" customFormat="1"/>
+    <row r="2" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="B2" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="B3" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="19" customFormat="1"/>
+    <row r="5" spans="1:5" s="22" customFormat="1" ht="5" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" s="13"/>
+      <c r="B7" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C7" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D7" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E7" s="45" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="45" t="s">
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" s="13"/>
+      <c r="B8" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C8" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D8" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E8" s="45" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="50">
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="47">
         <f>('HTC CP1'!H16+'HTC CP1'!H17)*'HTC CP1'!H18</f>
         <v>8760000</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C9" s="48">
         <f>'R2'!B3</f>
         <v>8760000</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D9" s="48">
         <f>'R3'!B3</f>
         <v>8760000</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E9" s="48">
         <f>'R4'!B3</f>
         <v>8760000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="50">
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="47">
         <f>'HTC CP1'!D7</f>
         <v>277675386.39923024</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C10" s="49">
         <f>'R2'!B4</f>
         <v>2538054714.7756495</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D10" s="49">
         <f>'R3'!B4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E10" s="49">
         <f>'R4'!B4</f>
         <v>7054233455.3805943</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" s="50">
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="47">
         <f>'HTC CP1'!D8</f>
         <v>56379142248.106384</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C11" s="49">
         <f>'R2'!B5</f>
         <v>54961298483.326492</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D11" s="49">
         <f>'R3'!B5</f>
         <v>56699745855.333786</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E11" s="49">
         <f>'R4'!B5</f>
         <v>52116093994.906654</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="53">
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="50">
         <f>'HTC CP1'!D9</f>
         <v>-4401900000</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C12" s="50">
         <f>'R2'!B6</f>
         <v>-9451034533.2719631</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D12" s="50">
         <f>'R3'!B6</f>
         <v>-12536655000</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E12" s="50">
         <f>'R4'!B6</f>
         <v>-4401900000</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="50">
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="47">
         <f>'HTC CP1'!D10</f>
         <v>-60503366861.707153</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C13" s="47">
         <f>'R2'!B7</f>
         <v>-61874278301.822807</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D13" s="47">
         <f>'R3'!B7</f>
         <v>-69236400855.333786</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E13" s="47">
         <f>'R4'!B7</f>
         <v>-49463760539.526062</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="43" t="s">
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="13"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="43" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B16" s="52">
         <f>'HTC CP1'!C21</f>
         <v>688.83839241302428</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C16" s="52">
         <f>'R2'!B10</f>
         <v>2949.7585475815863</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D16" s="52">
         <f>'R3'!B10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E16" s="52">
         <f>'R4'!B10</f>
         <v>5521.6251358973304</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="43" t="s">
+    <row r="17" spans="1:5" ht="16">
+      <c r="A17" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B17" s="53">
         <f>'HTC CP1'!C25</f>
         <v>12014.429536222493</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C17" s="53">
         <f>'R2'!B11</f>
         <v>8108.8996665622135</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D17" s="53">
         <f>'R3'!B11</f>
         <v>13459.030064847519</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E17" s="53">
         <f>'R4'!B11</f>
         <v>3898.8941878595451</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="43" t="s">
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B18" s="53">
         <f>'HTC CP1'!C23</f>
         <v>11837.188826171046</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C18" s="53">
         <f>'R2'!B12</f>
         <v>10664.132691328598</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D18" s="53">
         <f>'R3'!B12</f>
         <v>12372.157123210285</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E18" s="53">
         <f>'R4'!B12</f>
         <v>9329.3110684282674</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="43" t="s">
+    <row r="19" spans="1:5" ht="16">
+      <c r="A19" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B19" s="53">
         <f>'HTC CP1'!D15</f>
         <v>866.07910246447136</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C19" s="53">
         <f>'R2'!B13</f>
         <v>394.52552281520184</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D19" s="53">
         <f>'R3'!B13</f>
         <v>1086.8729416372335</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E19" s="53">
         <f>'R4'!B13</f>
         <v>91.208255328607265</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="43" t="s">
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B20" s="54">
         <f>'HTC CP1'!D17</f>
         <v>6.9142361528603802</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C20" s="54">
         <f>'R2'!B14</f>
         <v>2.8979629401445424</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D20" s="54">
         <f>'R3'!B14</f>
         <v>8.7848297658477801</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E20" s="54">
         <f>'R4'!B14</f>
         <v>0.61415828654654947</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="43" t="s">
+    <row r="21" spans="1:5" ht="16">
+      <c r="A21" s="13"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+    </row>
+    <row r="22" spans="1:5" ht="16">
+      <c r="A22" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="43" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="1:5" ht="16">
+      <c r="A23" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B23" s="52">
         <f>'HTC CP1'!C22</f>
         <v>148.88651216611461</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C23" s="52">
         <f>'R2'!B17</f>
         <v>1731.4714861739762</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D23" s="52">
         <f>'R3'!B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E23" s="52">
         <f>'R4'!B17</f>
         <v>3575.245978348938</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="43" t="s">
+    <row r="24" spans="1:5" ht="16">
+      <c r="A24" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B24" s="53">
         <f>'HTC CP1'!C26</f>
         <v>12626.988151471485</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C24" s="53">
         <f>'R2'!B18</f>
         <v>9384.7103050056048</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D24" s="53">
         <f>'R3'!B18</f>
         <v>13459.030064770663</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E24" s="53">
         <f>'R4'!B18</f>
         <v>5777.2523420606649</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="43" t="s">
+    <row r="25" spans="1:5" ht="16">
+      <c r="A25" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B25" s="53">
         <f>'HTC CP1'!C24</f>
         <v>11819.229685026634</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C25" s="53">
         <f>'R2'!B19</f>
         <v>10587.745066126308</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D25" s="53">
         <f>'R3'!B19</f>
         <v>12372.15712306426</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E25" s="53">
         <f>'R4'!B19</f>
         <v>9152.2384526664027</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="43" t="s">
+    <row r="26" spans="1:5" ht="16">
+      <c r="A26" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B26" s="53">
         <f>'HTC CP1'!D16</f>
         <v>956.64497861096606</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C26" s="53">
         <f>'R2'!B20</f>
         <v>528.43672505327231</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D26" s="53">
         <f>'R3'!B20</f>
         <v>1086.8729417064023</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E26" s="53">
         <f>'R4'!B20</f>
         <v>200.25986774319972</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="43" t="s">
+    <row r="27" spans="1:5" ht="16">
+      <c r="A27" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B27" s="54">
         <f>'HTC CP1'!D18</f>
         <v>7.9932795007066986</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C27" s="54">
         <f>'R2'!B21</f>
         <v>4.2895319098404912</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D27" s="54">
         <f>'R3'!B21</f>
         <v>8.7848297665105335</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E27" s="54">
         <f>'R4'!B21</f>
         <v>1.5734442169513925</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="43" t="s">
+    <row r="28" spans="1:5" ht="16">
+      <c r="A28" s="13"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+    </row>
+    <row r="29" spans="1:5" ht="16">
+      <c r="A29" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="43" t="s">
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+    </row>
+    <row r="30" spans="1:5" ht="16">
+      <c r="A30" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B30" s="52">
         <f>'HTC CP1'!H24</f>
         <v>30</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C30" s="52">
         <f>'R2'!B24</f>
         <v>30</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D30" s="52">
         <f>'R3'!B24</f>
         <v>40</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E30" s="52">
         <f>'R4'!B24</f>
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="43" t="s">
+    <row r="31" spans="1:5" ht="16">
+      <c r="A31" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="48">
+      <c r="B31" s="53">
         <f>'HTC CP1'!C29</f>
         <v>0</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C31" s="53">
         <f>'R2'!B25</f>
         <v>0</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D31" s="53">
         <f>'R3'!B25</f>
         <v>6.5936073059360716</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E31" s="53">
         <f>'R4'!B25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="43" t="s">
+    <row r="32" spans="1:5" ht="16">
+      <c r="A32" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B32" s="53">
         <f>'HTC CP1'!D13</f>
         <v>19.465109475142295</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C32" s="53">
         <f>'R2'!B26</f>
         <v>12.820892037867049</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D32" s="53">
         <f>'R3'!B26</f>
         <v>22.000000000135969</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E32" s="53">
         <f>'R4'!B26</f>
         <v>6.0003550406705672</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="43" t="s">
+    <row r="33" spans="1:5" ht="16">
+      <c r="A33" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B33" s="53">
         <f>'HTC CP1'!H23</f>
         <v>50000</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C33" s="53">
         <f>'R2'!B27</f>
         <v>50000</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D33" s="53">
         <f>'R3'!B27</f>
         <v>50000</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E33" s="53">
         <f>'R4'!B27</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="43" t="s">
+    <row r="34" spans="1:5" ht="16">
+      <c r="A34" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B34" s="54">
         <f>'HTC CP1'!C27</f>
         <v>96142.820499027512</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C34" s="54">
         <f>'R2'!B28</f>
         <v>125244.49287413528</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D34" s="54">
         <f>'R3'!B28</f>
         <v>99960</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E34" s="54">
         <f>'R4'!B28</f>
         <v>67518.444921863935</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="43" t="s">
+    <row r="35" spans="1:5" ht="16">
+      <c r="A35" s="13"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+    </row>
+    <row r="36" spans="1:5" ht="16">
+      <c r="A36" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="43" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+    </row>
+    <row r="37" spans="1:5" ht="16">
+      <c r="A37" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B37" s="52">
         <f>'HTC CP1'!H25</f>
         <v>10</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C37" s="52">
         <f>'R2'!B31</f>
         <v>10</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D37" s="52">
         <f>'R3'!B31</f>
         <v>30</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E37" s="52">
         <f>'R4'!B31</f>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="43" t="s">
+    <row r="38" spans="1:5" ht="16">
+      <c r="A38" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B38" s="53">
         <f>'HTC CP1'!C30</f>
         <v>0</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C38" s="53">
         <f>'R2'!B32</f>
         <v>0</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D38" s="53">
         <f>'R3'!B32</f>
         <v>0</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E38" s="53">
         <f>'R4'!B32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="43" t="s">
+    <row r="39" spans="1:5" ht="16">
+      <c r="A39" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B39" s="53">
         <f>'HTC CP1'!D14</f>
         <v>20.53489052498124</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C39" s="53">
         <f>'R2'!B33</f>
         <v>14.957793332597191</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D39" s="53">
         <f>'R3'!B33</f>
         <v>22</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E39" s="53">
         <f>'R4'!B33</f>
         <v>8.9996449593294532</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="43" t="s">
+    <row r="40" spans="1:5" ht="16">
+      <c r="A40" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B40" s="54">
         <f>'HTC CP1'!C28</f>
         <v>50000</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C40" s="54">
         <f>'R2'!B34</f>
         <v>103529.35807735957</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D40" s="54">
         <f>'R3'!B34</f>
         <v>135000</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E40" s="54">
         <f>'R4'!B34</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="43" t="s">
+    <row r="41" spans="1:5" ht="16">
+      <c r="A41" s="13"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+    </row>
+    <row r="42" spans="1:5" ht="16">
+      <c r="A42" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="B37" s="47">
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+    </row>
+    <row r="43" spans="1:5" ht="16">
+      <c r="A43" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="52">
         <f>'HTC CP1'!D33</f>
         <v>87.55002798264843</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C43" s="52">
         <f>'R2'!B37</f>
         <v>177.97310504342056</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D43" s="52">
         <f>'R3'!B37</f>
         <v>46.312888419207184</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E43" s="52">
         <f>'R4'!B37</f>
         <v>280.86560514198766</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="B38" s="48">
+    <row r="44" spans="1:5" ht="16">
+      <c r="A44" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="53">
         <f>'HTC CP1'!E33</f>
         <v>74.927664277546384</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C44" s="53">
         <f>'R2'!B38</f>
         <v>160.65511241769693</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D44" s="53">
         <f>'R3'!B38</f>
         <v>38.832969727718726</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E44" s="53">
         <f>'R4'!B38</f>
         <v>267.72482183649464</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="43" t="s">
+    <row r="45" spans="1:5" ht="16">
+      <c r="A45" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="49">
+      <c r="B45" s="54">
         <f>'1'!E25/(8760)</f>
         <v>-4.9150790362009946</v>
       </c>
-      <c r="C39" s="49">
+      <c r="C45" s="54">
         <f>'R2'!B39/2</f>
         <v>-11.034560748027525</v>
       </c>
-      <c r="D39" s="49">
+      <c r="D45" s="54">
         <f>'R3'!B39/2</f>
         <v>0</v>
       </c>
-      <c r="E39" s="49">
+      <c r="E45" s="54">
         <f>'R4'!B39/2</f>
         <v>-19.367914785987125</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1">
-      <c r="A40" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="46" t="e">
+    <row r="46" spans="1:5" ht="16" hidden="1">
+      <c r="A46" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="51" t="e">
         <f>'HTC CP1'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C40" s="46" t="e">
+      <c r="C46" s="51" t="e">
         <f>'R2'!B40</f>
         <v>#REF!</v>
       </c>
-      <c r="D40" s="46" t="e">
+      <c r="D46" s="51" t="e">
         <f>'R3'!B40</f>
         <v>#REF!</v>
       </c>
-      <c r="E40" s="46" t="e">
+      <c r="E46" s="51" t="e">
         <f>'R4'!B40</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1">
-      <c r="A41" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" s="46" t="e">
+    <row r="47" spans="1:5" ht="16" hidden="1">
+      <c r="A47" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="51" t="e">
         <f>'HTC CP1'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C41" s="46" t="e">
+      <c r="C47" s="51" t="e">
         <f>'R2'!B41</f>
         <v>#REF!</v>
       </c>
-      <c r="D41" s="46" t="e">
+      <c r="D47" s="51" t="e">
         <f>'R3'!B41</f>
         <v>#REF!</v>
       </c>
-      <c r="E41" s="46" t="e">
+      <c r="E47" s="51" t="e">
         <f>'R4'!B41</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1">
-      <c r="A42" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="B42" s="46" t="e">
+    <row r="48" spans="1:5" ht="16" hidden="1">
+      <c r="A48" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="51" t="e">
         <f>'HTC CP1'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C42" s="46" t="e">
+      <c r="C48" s="51" t="e">
         <f>'R2'!B42</f>
         <v>#REF!</v>
       </c>
-      <c r="D42" s="46" t="e">
+      <c r="D48" s="51" t="e">
         <f>'R3'!B42</f>
         <v>#REF!</v>
       </c>
-      <c r="E42" s="46" t="e">
+      <c r="E48" s="51" t="e">
         <f>'R4'!B42</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1">
-      <c r="A43" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="B43" s="46" t="e">
+    <row r="49" spans="1:5" ht="16" hidden="1">
+      <c r="A49" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="51" t="e">
         <f>'HTC CP1'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C43" s="46" t="e">
+      <c r="C49" s="51" t="e">
         <f>'R2'!B43</f>
         <v>#REF!</v>
       </c>
-      <c r="D43" s="46" t="e">
+      <c r="D49" s="51" t="e">
         <f>'R3'!B43</f>
         <v>#REF!</v>
       </c>
-      <c r="E43" s="46" t="e">
+      <c r="E49" s="51" t="e">
         <f>'R4'!B43</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1">
-      <c r="A44" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="B44" s="46" t="e">
+    <row r="50" spans="1:5" ht="16" hidden="1">
+      <c r="A50" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="51" t="e">
         <f>'HTC CP1'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C44" s="46" t="e">
+      <c r="C50" s="51" t="e">
         <f>'R2'!B44</f>
         <v>#REF!</v>
       </c>
-      <c r="D44" s="46" t="e">
+      <c r="D50" s="51" t="e">
         <f>'R3'!B44</f>
         <v>#REF!</v>
       </c>
-      <c r="E44" s="46" t="e">
+      <c r="E50" s="51" t="e">
         <f>'R4'!B44</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="43" t="s">
+    <row r="51" spans="1:5" ht="16">
+      <c r="A51" s="13"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+    </row>
+    <row r="52" spans="1:5" ht="16">
+      <c r="A52" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47" s="47">
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+    </row>
+    <row r="53" spans="1:5" ht="16">
+      <c r="A53" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="52">
         <f>'HTC CP1'!D34</f>
         <v>88.934378445863558</v>
       </c>
-      <c r="C47" s="47">
+      <c r="C53" s="52">
         <f>'R2'!B47</f>
         <v>183.86131781943038</v>
       </c>
-      <c r="D47" s="47">
+      <c r="D53" s="52">
         <f>'R3'!B47</f>
         <v>46.312888430463204</v>
       </c>
-      <c r="E47" s="47">
+      <c r="E53" s="52">
         <f>'R4'!B47</f>
         <v>294.51495260696481</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B48" s="48">
+    <row r="54" spans="1:5" ht="16">
+      <c r="A54" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="53">
         <f>'HTC CP1'!E34</f>
         <v>75.458698331130748</v>
       </c>
-      <c r="C48" s="48">
+      <c r="C54" s="53">
         <f>'R2'!B48</f>
         <v>163.15549537104735</v>
       </c>
-      <c r="D48" s="48">
+      <c r="D54" s="53">
         <f>'R3'!B48</f>
         <v>38.832969737199519</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E54" s="53">
         <f>'R4'!B48</f>
         <v>274.09710621031911</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="43" t="s">
+    <row r="55" spans="1:5" ht="16">
+      <c r="A55" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B55" s="54">
         <f>'1'!E26/(8760)</f>
         <v>-4.9150887311075531</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C55" s="54">
         <f>'R2'!B49/2</f>
         <v>-11.037421328489041</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D55" s="54">
         <f>'R3'!B49/2</f>
         <v>0</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E55" s="54">
         <f>'R4'!B49/2</f>
         <v>-19.367837154351392</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1">
-      <c r="A50" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="B50" s="46" t="e">
+    <row r="56" spans="1:5" hidden="1">
+      <c r="A56" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" s="51" t="e">
         <f>'HTC CP1'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C50" s="44" t="e">
+      <c r="C56" s="45" t="e">
         <f>'R2'!B50</f>
         <v>#REF!</v>
       </c>
-      <c r="D50" s="44" t="e">
+      <c r="D56" s="45" t="e">
         <f>'R3'!B50</f>
         <v>#REF!</v>
       </c>
-      <c r="E50" s="44" t="e">
+      <c r="E56" s="45" t="e">
         <f>'R4'!B50</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1">
-      <c r="A51" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="B51" s="46" t="e">
+    <row r="57" spans="1:5" hidden="1">
+      <c r="A57" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="51" t="e">
         <f>'HTC CP1'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C51" s="44" t="e">
+      <c r="C57" s="45" t="e">
         <f>'R2'!B51</f>
         <v>#REF!</v>
       </c>
-      <c r="D51" s="44" t="e">
+      <c r="D57" s="45" t="e">
         <f>'R3'!B51</f>
         <v>#REF!</v>
       </c>
-      <c r="E51" s="44" t="e">
+      <c r="E57" s="45" t="e">
         <f>'R4'!B51</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1">
-      <c r="A52" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="B52" s="46" t="e">
+    <row r="58" spans="1:5" hidden="1">
+      <c r="A58" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="51" t="e">
         <f>'HTC CP1'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C52" s="44" t="e">
+      <c r="C58" s="45" t="e">
         <f>'R2'!B52</f>
         <v>#REF!</v>
       </c>
-      <c r="D52" s="44" t="e">
+      <c r="D58" s="45" t="e">
         <f>'R3'!B52</f>
         <v>#REF!</v>
       </c>
-      <c r="E52" s="44" t="e">
+      <c r="E58" s="45" t="e">
         <f>'R4'!B52</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1">
-      <c r="A53" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B53" s="46">
+    <row r="59" spans="1:5" hidden="1">
+      <c r="A59" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" s="51">
         <f>'HTC CP1'!H39</f>
         <v>0</v>
       </c>
-      <c r="C53" s="44">
+      <c r="C59" s="45">
         <f>'R2'!B53</f>
         <v>0</v>
       </c>
-      <c r="D53" s="44">
+      <c r="D59" s="45">
         <f>'R3'!B53</f>
         <v>0</v>
       </c>
-      <c r="E53" s="44">
+      <c r="E59" s="45">
         <f>'R4'!B53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1">
-      <c r="A54" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="B54" s="46">
+    <row r="60" spans="1:5" hidden="1">
+      <c r="A60" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="51">
         <f>'HTC CP1'!H40</f>
         <v>0</v>
       </c>
-      <c r="C54" s="44">
+      <c r="C60" s="45">
         <f>'R2'!B54</f>
         <v>0</v>
       </c>
-      <c r="D54" s="44">
+      <c r="D60" s="45">
         <f>'R3'!B54</f>
         <v>0</v>
       </c>
-      <c r="E54" s="44">
+      <c r="E60" s="45">
         <f>'R4'!B54</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4984,7 +5000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:P1048574"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:C18"/>
     </sheetView>
   </sheetViews>
@@ -4998,7 +5014,7 @@
     <col min="14" max="16" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="16"/>
+    <row r="1" spans="1:9" s="19" customFormat="1"/>
     <row r="2" spans="1:9" s="19" customFormat="1" ht="19">
       <c r="G2" s="20" t="s">
         <v>136</v>
@@ -5009,7 +5025,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="19" customFormat="1" ht="16"/>
+    <row r="4" spans="1:9" s="19" customFormat="1"/>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="5" customHeight="1"/>
     <row r="7" spans="1:9" ht="16">
       <c r="A7" s="13" t="s">
@@ -5745,7 +5761,7 @@
     <col min="14" max="16" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="19" customFormat="1" ht="16"/>
+    <row r="1" spans="1:20" s="19" customFormat="1"/>
     <row r="2" spans="1:20" s="19" customFormat="1" ht="19">
       <c r="G2" s="20" t="s">
         <v>136</v>
@@ -5756,7 +5772,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="19" customFormat="1" ht="16"/>
+    <row r="4" spans="1:20" s="19" customFormat="1"/>
     <row r="5" spans="1:20" s="22" customFormat="1" ht="5" customHeight="1"/>
     <row r="6" spans="1:20">
       <c r="L6" s="19"/>
@@ -6657,7 +6673,7 @@
     <col min="14" max="16" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="16"/>
+    <row r="1" spans="1:9" s="19" customFormat="1"/>
     <row r="2" spans="1:9" s="19" customFormat="1" ht="19">
       <c r="G2" s="20" t="s">
         <v>136</v>
@@ -6668,7 +6684,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="19" customFormat="1" ht="16"/>
+    <row r="4" spans="1:9" s="19" customFormat="1"/>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="5" customHeight="1"/>
     <row r="7" spans="1:9" ht="16">
       <c r="A7" s="13" t="s">
@@ -7378,7 +7394,7 @@
   <dimension ref="A1:P1048574"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A5" sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7392,7 +7408,7 @@
     <col min="14" max="16" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="16"/>
+    <row r="1" spans="1:9" s="19" customFormat="1"/>
     <row r="2" spans="1:9" s="19" customFormat="1" ht="19">
       <c r="G2" s="20" t="s">
         <v>136</v>
@@ -7403,7 +7419,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="19" customFormat="1" ht="16"/>
+    <row r="4" spans="1:9" s="19" customFormat="1"/>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="5" customHeight="1"/>
     <row r="7" spans="1:9" ht="16">
       <c r="A7" s="13" t="s">
@@ -8097,7 +8113,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>

--- a/HTC/E2_Despacho_Hidrotermico.xlsx
+++ b/HTC/E2_Despacho_Hidrotermico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DHT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/HTC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3493" documentId="11_A37A89073CE4F788F15F8314552FDBE8DD53D1B4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{BC00111E-5C0D-4A07-94A0-9A9276EAAF97}"/>
+  <xr:revisionPtr revIDLastSave="3499" documentId="11_A37A89073CE4F788F15F8314552FDBE8DD53D1B4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{07A3448C-A861-4D4D-85C8-8CAA8B0CED02}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="40" r:id="rId1"/>
@@ -2633,7 +2633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -3712,7 +3712,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A44" sqref="A40:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="16.5"/>
@@ -4020,7 +4020,7 @@
         <v>-38.73582957197425</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" hidden="1">
       <c r="A40" s="13" t="s">
         <v>87</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" hidden="1">
       <c r="A41" s="13" t="s">
         <v>88</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" hidden="1">
       <c r="A42" s="13" t="s">
         <v>89</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" hidden="1">
       <c r="A43" s="13" t="s">
         <v>100</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" hidden="1">
       <c r="A44" s="13" t="s">
         <v>90</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>-38.735674308702784</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" hidden="1">
       <c r="A50" s="13" t="s">
         <v>95</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" hidden="1">
       <c r="A51" s="13" t="s">
         <v>96</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" hidden="1">
       <c r="A52" s="13" t="s">
         <v>97</v>
       </c>
@@ -4159,8 +4159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="16.5"/>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" hidden="1">
       <c r="A40" s="13" t="s">
         <v>87</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" hidden="1">
       <c r="A41" s="13" t="s">
         <v>88</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" hidden="1">
       <c r="A42" s="13" t="s">
         <v>89</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" hidden="1">
       <c r="A43" s="13" t="s">
         <v>100</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" hidden="1">
       <c r="A44" s="13" t="s">
         <v>90</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" hidden="1">
       <c r="A50" s="13" t="s">
         <v>95</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" hidden="1">
       <c r="A51" s="13" t="s">
         <v>96</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" hidden="1">
       <c r="A52" s="13" t="s">
         <v>97</v>
       </c>
@@ -4607,8 +4607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="16.5"/>
@@ -4916,7 +4916,7 @@
         <v>-22.06912149605505</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" hidden="1">
       <c r="A40" s="13" t="s">
         <v>87</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" hidden="1">
       <c r="A41" s="13" t="s">
         <v>88</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" hidden="1">
       <c r="A42" s="13" t="s">
         <v>89</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" hidden="1">
       <c r="A43" s="13" t="s">
         <v>100</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" hidden="1">
       <c r="A44" s="13" t="s">
         <v>90</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>-22.074842656978081</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" hidden="1">
       <c r="A50" s="13" t="s">
         <v>95</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" hidden="1">
       <c r="A51" s="13" t="s">
         <v>96</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" hidden="1">
       <c r="A52" s="13" t="s">
         <v>97</v>
       </c>
@@ -5856,7 +5856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T1048574"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:F10"/>
     </sheetView>
   </sheetViews>
@@ -7528,7 +7528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -8615,7 +8615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>

--- a/HTC/E2_Despacho_Hidrotermico.xlsx
+++ b/HTC/E2_Despacho_Hidrotermico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/HTC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3499" documentId="11_A37A89073CE4F788F15F8314552FDBE8DD53D1B4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{07A3448C-A861-4D4D-85C8-8CAA8B0CED02}"/>
+  <xr:revisionPtr revIDLastSave="3500" documentId="11_A37A89073CE4F788F15F8314552FDBE8DD53D1B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{439B045D-80A8-7344-86F0-C0A2DAC1C892}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33980" windowHeight="21180" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="40" r:id="rId1"/>
@@ -2223,24 +2223,24 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="8" width="6.85546875" customWidth="1"/>
+    <col min="5" max="8" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="19" customFormat="1"/>
-    <row r="2" spans="1:9" s="19" customFormat="1" ht="18.75">
+    <row r="2" spans="1:9" s="19" customFormat="1" ht="19">
       <c r="G2" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="19" customFormat="1" ht="18.75">
+    <row r="3" spans="1:9" s="19" customFormat="1" ht="19">
       <c r="G3" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="19" customFormat="1"/>
-    <row r="5" spans="1:9" s="22" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
+    <row r="5" spans="1:9" s="22" customFormat="1" ht="5" customHeight="1"/>
     <row r="6" spans="1:9" s="34" customFormat="1"/>
     <row r="7" spans="1:9" s="34" customFormat="1">
       <c r="F7" s="55" t="s">
@@ -2633,37 +2633,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" style="42" customWidth="1"/>
     <col min="2" max="5" width="19" style="43" customWidth="1"/>
-    <col min="6" max="16384" width="10.85546875" style="42"/>
+    <col min="6" max="16384" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="19" customFormat="1"/>
-    <row r="2" spans="1:5" s="19" customFormat="1" ht="18.75">
+    <row r="2" spans="1:5" s="19" customFormat="1" ht="19">
       <c r="B2" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="19" customFormat="1" ht="18.75">
+    <row r="3" spans="1:5" s="19" customFormat="1" ht="19">
       <c r="B3" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1"/>
-    <row r="5" spans="1:5" s="22" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
+    <row r="5" spans="1:5" s="22" customFormat="1" ht="5" customHeight="1"/>
     <row r="6" spans="1:5">
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" s="13"/>
       <c r="B7" s="44" t="s">
         <v>174</v>
@@ -2678,7 +2678,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="13"/>
       <c r="B8" s="45" t="s">
         <v>175</v>
@@ -2693,7 +2693,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" s="13" t="s">
         <v>73</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>8760000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="13" t="s">
         <v>77</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>7054239300.4140759</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="16">
       <c r="A11" s="13" t="s">
         <v>74</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>52116099839.996758</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" s="13" t="s">
         <v>75</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>-4401900000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" ht="16">
       <c r="A13" s="13" t="s">
         <v>76</v>
       </c>
@@ -2798,14 +2798,14 @@
         <v>-49463760539.58268</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="13"/>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5">
+    <row r="15" spans="1:5" ht="16">
       <c r="A15" s="13" t="s">
         <v>112</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5">
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" s="13" t="s">
         <v>115</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>5521.6192489172618</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="13" t="s">
         <v>116</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>3898.9124597974619</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="13" t="s">
         <v>117</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>9329.3225985004647</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" s="13" t="s">
         <v>114</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>91.209110214258544</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="13" t="s">
         <v>113</v>
       </c>
@@ -2919,14 +2919,14 @@
         <v>0.6141638096180273</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" s="13"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5">
+    <row r="22" spans="1:5" ht="16">
       <c r="A22" s="13" t="s">
         <v>118</v>
       </c>
@@ -2935,7 +2935,7 @@
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="13" t="s">
         <v>119</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>3575.2561235975213</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16">
       <c r="A24" s="13" t="s">
         <v>120</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>5777.2344950076194</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16">
       <c r="A25" s="13" t="s">
         <v>121</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>9152.2319881439817</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16">
       <c r="A26" s="13" t="s">
         <v>122</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>200.25863046115956</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="13" t="s">
         <v>113</v>
       </c>
@@ -3040,14 +3040,14 @@
         <v>1.5734340405819336</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16">
       <c r="A28" s="13"/>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
       <c r="E28" s="50"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16">
       <c r="A29" s="13" t="s">
         <v>101</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="D29" s="50"/>
       <c r="E29" s="50"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5">
+    <row r="30" spans="1:5" ht="16">
       <c r="A30" s="13" t="s">
         <v>105</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5">
+    <row r="31" spans="1:5" ht="16">
       <c r="A31" s="13" t="s">
         <v>104</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.5">
+    <row r="32" spans="1:5" ht="16">
       <c r="A32" s="13" t="s">
         <v>103</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>6.0003838733878325</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5">
+    <row r="33" spans="1:5" ht="16">
       <c r="A33" s="13" t="s">
         <v>111</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5">
+    <row r="34" spans="1:5" ht="16">
       <c r="A34" s="13" t="s">
         <v>102</v>
       </c>
@@ -3161,14 +3161,14 @@
         <v>67518.318634566604</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.5">
+    <row r="35" spans="1:5" ht="16">
       <c r="A35" s="13"/>
       <c r="B35" s="50"/>
       <c r="C35" s="50"/>
       <c r="D35" s="50"/>
       <c r="E35" s="50"/>
     </row>
-    <row r="36" spans="1:5" ht="16.5">
+    <row r="36" spans="1:5" ht="16">
       <c r="A36" s="13" t="s">
         <v>106</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="D36" s="50"/>
       <c r="E36" s="50"/>
     </row>
-    <row r="37" spans="1:5" ht="16.5">
+    <row r="37" spans="1:5" ht="16">
       <c r="A37" s="13" t="s">
         <v>107</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5">
+    <row r="38" spans="1:5" ht="16">
       <c r="A38" s="13" t="s">
         <v>108</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5">
+    <row r="39" spans="1:5" ht="16">
       <c r="A39" s="13" t="s">
         <v>109</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>8.9996161266144892</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5">
+    <row r="40" spans="1:5" ht="16">
       <c r="A40" s="13" t="s">
         <v>110</v>
       </c>
@@ -3261,14 +3261,14 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5">
+    <row r="41" spans="1:5" ht="16">
       <c r="A41" s="13"/>
       <c r="B41" s="50"/>
       <c r="C41" s="50"/>
       <c r="D41" s="50"/>
       <c r="E41" s="50"/>
     </row>
-    <row r="42" spans="1:5" ht="16.5">
+    <row r="42" spans="1:5" ht="16">
       <c r="A42" s="13" t="s">
         <v>82</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="D42" s="50"/>
       <c r="E42" s="50"/>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
+    <row r="43" spans="1:5" ht="16">
       <c r="A43" s="13" t="s">
         <v>84</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>280.86471636558917</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.5">
+    <row r="44" spans="1:5" ht="16">
       <c r="A44" s="13" t="s">
         <v>85</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>267.72391305972587</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5">
+    <row r="45" spans="1:5" ht="16">
       <c r="A45" s="13" t="s">
         <v>134</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>-19.367914785987125</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" hidden="1">
+    <row r="46" spans="1:5" ht="16">
       <c r="A46" s="13" t="s">
         <v>87</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5" hidden="1">
+    <row r="47" spans="1:5" ht="16">
       <c r="A47" s="13" t="s">
         <v>88</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.5" hidden="1">
+    <row r="48" spans="1:5" ht="16">
       <c r="A48" s="13" t="s">
         <v>89</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" hidden="1">
+    <row r="49" spans="1:5" ht="16">
       <c r="A49" s="13" t="s">
         <v>100</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" hidden="1">
+    <row r="50" spans="1:5" ht="16">
       <c r="A50" s="13" t="s">
         <v>90</v>
       </c>
@@ -3445,14 +3445,14 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.5">
+    <row r="51" spans="1:5" ht="16">
       <c r="A51" s="13"/>
       <c r="B51" s="50"/>
       <c r="C51" s="50"/>
       <c r="D51" s="50"/>
       <c r="E51" s="50"/>
     </row>
-    <row r="52" spans="1:5" ht="16.5">
+    <row r="52" spans="1:5" ht="16">
       <c r="A52" s="13" t="s">
         <v>91</v>
       </c>
@@ -3461,7 +3461,7 @@
       <c r="D52" s="50"/>
       <c r="E52" s="50"/>
     </row>
-    <row r="53" spans="1:5" ht="16.5">
+    <row r="53" spans="1:5" ht="16">
       <c r="A53" s="13" t="s">
         <v>92</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>294.51545091390142</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.5">
+    <row r="54" spans="1:5" ht="16">
       <c r="A54" s="13" t="s">
         <v>93</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>274.09763304591127</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16.5">
+    <row r="55" spans="1:5" ht="16">
       <c r="A55" s="13" t="s">
         <v>135</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>-19.367837154351392</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1">
+    <row r="56" spans="1:5">
       <c r="A56" s="42" t="s">
         <v>179</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1">
+    <row r="57" spans="1:5">
       <c r="A57" s="42" t="s">
         <v>180</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1">
+    <row r="58" spans="1:5">
       <c r="A58" s="42" t="s">
         <v>181</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1">
+    <row r="59" spans="1:5">
       <c r="A59" s="42" t="s">
         <v>182</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1">
+    <row r="60" spans="1:5">
       <c r="A60" s="42" t="s">
         <v>183</v>
       </c>
@@ -3715,11 +3715,11 @@
       <selection activeCell="A44" sqref="A40:XFD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="10.85546875" style="13"/>
+    <col min="1" max="1" width="43.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4163,11 +4163,11 @@
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="10.85546875" style="13"/>
+    <col min="1" max="1" width="43.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4611,11 +4611,11 @@
       <selection activeCell="A50" sqref="A50:XFD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="10.85546875" style="13"/>
+    <col min="1" max="1" width="43.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5059,31 +5059,31 @@
       <selection activeCell="F7" sqref="F7:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.85546875" style="34"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="19" customFormat="1"/>
-    <row r="2" spans="1:12" s="19" customFormat="1" ht="18.75">
+    <row r="2" spans="1:12" s="19" customFormat="1" ht="19">
       <c r="G2" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="18.75">
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="19">
       <c r="G3" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1"/>
-    <row r="5" spans="1:12" s="22" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
-    <row r="7" spans="1:12" ht="16.5">
+    <row r="5" spans="1:12" s="22" customFormat="1" ht="5" customHeight="1"/>
+    <row r="7" spans="1:12" ht="16">
       <c r="A7" s="13" t="s">
         <v>73</v>
       </c>
@@ -5107,7 +5107,7 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5">
+    <row r="8" spans="1:12" ht="16">
       <c r="A8" s="13" t="s">
         <v>74</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5">
+    <row r="9" spans="1:12" ht="16">
       <c r="A9" s="13" t="s">
         <v>75</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5">
+    <row r="10" spans="1:12" ht="16">
       <c r="A10" s="13" t="s">
         <v>76</v>
       </c>
@@ -5856,33 +5856,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.85546875" style="19"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="19" customFormat="1"/>
-    <row r="2" spans="1:20" s="19" customFormat="1" ht="18.75">
+    <row r="2" spans="1:20" s="19" customFormat="1" ht="19">
       <c r="G2" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="19" customFormat="1" ht="18.75">
+    <row r="3" spans="1:20" s="19" customFormat="1" ht="19">
       <c r="G3" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="19" customFormat="1"/>
-    <row r="5" spans="1:20" s="22" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
+    <row r="5" spans="1:20" s="22" customFormat="1" ht="5" customHeight="1"/>
     <row r="6" spans="1:20">
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -5891,7 +5891,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5">
+    <row r="7" spans="1:20" ht="16">
       <c r="A7" s="13" t="s">
         <v>73</v>
       </c>
@@ -5917,7 +5917,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5">
+    <row r="8" spans="1:20" ht="16">
       <c r="A8" s="13" t="s">
         <v>74</v>
       </c>
@@ -5948,7 +5948,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5">
+    <row r="9" spans="1:20" ht="16">
       <c r="A9" s="13" t="s">
         <v>75</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5">
+    <row r="10" spans="1:20" ht="16">
       <c r="A10" s="13" t="s">
         <v>76</v>
       </c>
@@ -6770,30 +6770,30 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.85546875" style="34"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="19" customFormat="1"/>
-    <row r="2" spans="1:12" s="19" customFormat="1" ht="18.75">
+    <row r="2" spans="1:12" s="19" customFormat="1" ht="19">
       <c r="G2" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="18.75">
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="19">
       <c r="G3" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1"/>
-    <row r="5" spans="1:12" s="22" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
-    <row r="7" spans="1:12" ht="16.5">
+    <row r="5" spans="1:12" s="22" customFormat="1" ht="5" customHeight="1"/>
+    <row r="7" spans="1:12" ht="16">
       <c r="A7" s="13" t="s">
         <v>73</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5">
+    <row r="8" spans="1:12" ht="16">
       <c r="A8" s="13" t="s">
         <v>74</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5">
+    <row r="9" spans="1:12" ht="16">
       <c r="A9" s="13" t="s">
         <v>75</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5">
+    <row r="10" spans="1:12" ht="16">
       <c r="A10" s="13" t="s">
         <v>76</v>
       </c>
@@ -7528,35 +7528,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P1048574"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.85546875" style="34"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="19" customFormat="1"/>
-    <row r="2" spans="1:12" s="19" customFormat="1" ht="18.75">
+    <row r="2" spans="1:12" s="19" customFormat="1" ht="19">
       <c r="G2" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="18.75">
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="19">
       <c r="G3" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1"/>
-    <row r="5" spans="1:12" s="22" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
-    <row r="7" spans="1:12" ht="16.5">
+    <row r="5" spans="1:12" s="22" customFormat="1" ht="5" customHeight="1"/>
+    <row r="7" spans="1:12" ht="16">
       <c r="A7" s="13" t="s">
         <v>73</v>
       </c>
@@ -7577,7 +7577,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5">
+    <row r="8" spans="1:12" ht="16">
       <c r="A8" s="13" t="s">
         <v>74</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5">
+    <row r="9" spans="1:12" ht="16">
       <c r="A9" s="13" t="s">
         <v>75</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5">
+    <row r="10" spans="1:12" ht="16">
       <c r="A10" s="13" t="s">
         <v>76</v>
       </c>
@@ -8295,12 +8295,12 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8319,7 +8319,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="16" thickBot="1">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="16" thickBot="1">
       <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>743123648.84058273</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+    <row r="18" spans="1:5" ht="16" thickBot="1">
       <c r="B18" s="4" t="s">
         <v>45</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>743120670.20787776</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+    <row r="20" spans="1:5" ht="16" thickBot="1">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+    <row r="22" spans="1:5" ht="16" thickBot="1">
       <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+    <row r="28" spans="1:5" ht="16" thickBot="1">
       <c r="B28" s="4" t="s">
         <v>131</v>
       </c>
@@ -8619,11 +8619,11 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
@@ -8643,7 +8643,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="16" thickBot="1">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="16" thickBot="1">
       <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+    <row r="18" spans="1:5" ht="16" thickBot="1">
       <c r="B18" s="4" t="s">
         <v>45</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+    <row r="20" spans="1:5" ht="16" thickBot="1">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+    <row r="22" spans="1:5" ht="16" thickBot="1">
       <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>-96138642.842070296</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+    <row r="28" spans="1:5" ht="16" thickBot="1">
       <c r="B28" s="4" t="s">
         <v>131</v>
       </c>
@@ -8943,12 +8943,12 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8967,7 +8967,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="16" thickBot="1">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="16" thickBot="1">
       <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>423382854.42891848</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+    <row r="18" spans="1:5" ht="16" thickBot="1">
       <c r="B18" s="4" t="s">
         <v>45</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>423492611.4685303</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+    <row r="20" spans="1:5" ht="16" thickBot="1">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+    <row r="22" spans="1:5" ht="16" thickBot="1">
       <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>-96662.752152721121</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+    <row r="26" spans="1:5" ht="16" thickBot="1">
       <c r="B26" s="4" t="s">
         <v>49</v>
       </c>
@@ -9239,12 +9239,12 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9263,7 +9263,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="16" thickBot="1">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="16" thickBot="1">
       <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>188585684.5241887</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+    <row r="18" spans="1:5" ht="16" thickBot="1">
       <c r="B18" s="4" t="s">
         <v>45</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>188586056.50611946</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+    <row r="20" spans="1:5" ht="16" thickBot="1">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+    <row r="22" spans="1:5" ht="16" thickBot="1">
       <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>-43056.092357120709</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+    <row r="26" spans="1:5" ht="16" thickBot="1">
       <c r="B26" s="4" t="s">
         <v>49</v>
       </c>

--- a/HTC/E2_Despacho_Hidrotermico.xlsx
+++ b/HTC/E2_Despacho_Hidrotermico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/HTC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3500" documentId="11_A37A89073CE4F788F15F8314552FDBE8DD53D1B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{439B045D-80A8-7344-86F0-C0A2DAC1C892}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{6B10503B-4F58-4267-8E5D-7D169164FC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64FE0C2B-E87B-DA48-9487-088D74B2F290}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33980" windowHeight="21180" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33260" windowHeight="23540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="40" r:id="rId1"/>
@@ -215,14 +215,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -231,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="185">
   <si>
     <t>Pd1</t>
   </si>
@@ -1177,6 +1169,9 @@
       </rPr>
       <t>hs2 ($/MWh)</t>
     </r>
+  </si>
+  <si>
+    <t>Thermal OPEX ($/yr)</t>
   </si>
 </sst>
 </file>
@@ -2633,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -3340,7 +3335,7 @@
         <v>-19.367914785987125</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16">
+    <row r="46" spans="1:5" ht="16" hidden="1">
       <c r="A46" s="13" t="s">
         <v>87</v>
       </c>
@@ -3361,7 +3356,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16">
+    <row r="47" spans="1:5" ht="16" hidden="1">
       <c r="A47" s="13" t="s">
         <v>88</v>
       </c>
@@ -3382,7 +3377,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16">
+    <row r="48" spans="1:5" ht="16" hidden="1">
       <c r="A48" s="13" t="s">
         <v>89</v>
       </c>
@@ -3403,7 +3398,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16">
+    <row r="49" spans="1:5" ht="16" hidden="1">
       <c r="A49" s="13" t="s">
         <v>100</v>
       </c>
@@ -3424,7 +3419,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16">
+    <row r="50" spans="1:5" ht="16" hidden="1">
       <c r="A50" s="13" t="s">
         <v>90</v>
       </c>
@@ -3524,7 +3519,7 @@
         <v>-19.367837154351392</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" s="42" t="s">
         <v>179</v>
       </c>
@@ -3545,7 +3540,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" s="42" t="s">
         <v>180</v>
       </c>
@@ -3566,7 +3561,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" s="42" t="s">
         <v>181</v>
       </c>
@@ -3587,7 +3582,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" s="42" t="s">
         <v>182</v>
       </c>
@@ -3608,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" s="42" t="s">
         <v>183</v>
       </c>
@@ -5055,8 +5050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:P1048574"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -5085,7 +5080,7 @@
     <row r="5" spans="1:12" s="22" customFormat="1" ht="5" customHeight="1"/>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="13" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="D7">
         <f>K16*(K12*C21+K14*C21^2)+K17*(K13*C22+K15*C22^2)</f>
@@ -5857,7 +5852,7 @@
   <dimension ref="A1:T1048574"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -5893,7 +5888,7 @@
     </row>
     <row r="7" spans="1:20" ht="16">
       <c r="A7" s="13" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="D7">
         <f>K16*(K12*C21+K14*C21^2)+K17*(K13*C22+K15*C22^2)</f>
@@ -6767,7 +6762,7 @@
   <dimension ref="A1:P1048574"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -6795,7 +6790,7 @@
     <row r="5" spans="1:12" s="22" customFormat="1" ht="5" customHeight="1"/>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="13" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="D7">
         <f>K16*(K12*C21+K14*C21^2)+K17*(K13*C22+K15*C22^2)</f>
@@ -7529,7 +7524,7 @@
   <dimension ref="A1:P1048574"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -7558,7 +7553,7 @@
     <row r="5" spans="1:12" s="22" customFormat="1" ht="5" customHeight="1"/>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="13" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="D7">
         <f>K16*(K12*C21+K14*C21^2)+K17*(K13*C22+K15*C22^2)</f>
